--- a/medicine/Enfance/Gennady_Spirin/Gennady_Spirin.xlsx
+++ b/medicine/Enfance/Gennady_Spirin/Gennady_Spirin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gennady Konstantinovich Spirin (né le 25 décembre 1948) est un illustrateur russe de littérature d'enfance et de jeunesse. son prénom est parfois orthographié Gennadij.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'École de peinture, de sculpture et d'architecture de Moscou. 
-En 1991, il s'installe aux États-Unis[1].
-Il illustre de nombreux textes d'auteurs classiques russes, des contes traditionnels européens et américains[2]. Il a aussi illustré un conte pour enfants écrit par Madonna et un album écrit par Julie Andrews.
-Une critique des Kirkus Reviews apprécie ses illustrations à l'aquarelle immédiatement reconnaissables[3].
+En 1991, il s'installe aux États-Unis.
+Il illustre de nombreux textes d'auteurs classiques russes, des contes traditionnels européens et américains. Il a aussi illustré un conte pour enfants écrit par Madonna et un album écrit par Julie Andrews.
+Une critique des Kirkus Reviews apprécie ses illustrations à l'aquarelle immédiatement reconnaissables.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nicolas Gogol, La foire annuelle de Sorotchintsy, éditions du Sorbier, 1990  (ISBN 9782732032313)
 Nicolas Gogol, Le Nez, éditions du Sorbier, 1992  (ISBN 978-2732032962)
@@ -589,10 +605,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pomme d'Or de Bratislava en 1983 pour Marissa and the Gnomes[1]
-Prix international de Catalogne en 1995 pour Kashtanka d'Anton Tchekhov[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pomme d'Or de Bratislava en 1983 pour Marissa and the Gnomes
+Prix international de Catalogne en 1995 pour Kashtanka d'Anton Tchekhov</t>
         </is>
       </c>
     </row>
